--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_4_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_4_sine_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.76000000000043</v>
+        <v>24.86000000000045</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.181088324069315e-16</v>
+        <v>1.197005956469171e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>46.73823562860594</v>
+        <v>45.27693583471693</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[43.850646523912566, 49.62582473329932]</t>
+          <t>[42.31162049110234, 48.24225117833152]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.490605523324887</v>
+        <v>1.616395018964117</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.427710775505271, 1.553500271144503]</t>
+          <t>[1.5409213215805773, 1.6918687163476571]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>50.60765316180625</v>
+        <v>50.01543416943114</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[48.65737310132758, 52.55793322228493]</t>
+          <t>[48.03244034766444, 51.998427991197836]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.88600600600633</v>
+        <v>18.46458458458492</v>
       </c>
       <c r="X2" t="n">
-        <v>18.63815815815848</v>
+        <v>18.16596596596629</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.13385385385419</v>
+        <v>18.76320320320355</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.96000000000015</v>
+        <v>23.00000000000016</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.181088324069315e-16</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1.197005956469171e-16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.93894575122854</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>45.13371010133079</v>
+        <v>48.14815891776909</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[40.94876573626032, 49.31865446640126]</t>
+          <t>[43.7178600958609, 52.578457739677276]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -694,11 +696,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>51.38692456878803</v>
+        <v>50.81400155247482</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[48.47399174769641, 54.299857389879655]</t>
+          <t>[47.73664857537094, 53.8913545295787]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>5.745745745745783</v>
+        <v>5.755755755755796</v>
       </c>
       <c r="X3" t="n">
-        <v>5.378018018018051</v>
+        <v>5.387387387387424</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.113473473473515</v>
+        <v>6.124124124124169</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_4_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_4_sine_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.86000000000045</v>
+        <v>24.80000000000044</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.197005956469171e-16</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>1.200241107702872e-16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.8742712868422076</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>45.27693583471693</v>
+        <v>46.78383156310306</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[42.31162049110234, 48.24225117833152]</t>
+          <t>[43.76241674778547, 49.80524637842064]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +601,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.616395018964117</v>
+        <v>1.515763422452733</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.5409213215805773, 1.6918687163476571]</t>
+          <t>[1.4528686746331179, 1.5786581702723481]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +615,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>50.01543416943114</v>
+        <v>51.65517145099296</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[48.03244034766444, 51.998427991197836]</t>
+          <t>[49.61837750151508, 53.69196540047084]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.46458458458492</v>
+        <v>18.81721721721755</v>
       </c>
       <c r="X2" t="n">
-        <v>18.16596596596629</v>
+        <v>18.5689689689693</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.76320320320355</v>
+        <v>19.0654654654658</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.00000000000016</v>
+        <v>23.3000000000002</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,18 +663,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.197005956469171e-16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.93894575122854</v>
-      </c>
+        <v>1.200241107702872e-16</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>48.14815891776909</v>
+        <v>46.50526998388941</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[43.7178600958609, 52.578457739677276]</t>
+          <t>[40.6763836291817, 52.334156338597126]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -682,11 +682,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.572368695490387</v>
+        <v>-0.8805264694746171</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.6730002920017721, -1.471737098979002]</t>
+          <t>[-1.0063159651138482, -0.754736973835386]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -696,11 +696,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>50.81400155247482</v>
+        <v>51.21937070000281</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[47.73664857537094, 53.8913545295787]</t>
+          <t>[48.200146266474874, 54.23859513353075]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>5.755755755755796</v>
+        <v>3.265265265265295</v>
       </c>
       <c r="X3" t="n">
-        <v>5.387387387387424</v>
+        <v>2.798798798798824</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.124124124124169</v>
+        <v>3.731731731731767</v>
       </c>
     </row>
   </sheetData>
